--- a/data/trans_orig/P14A27-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A27-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0094AFC6-8D43-4218-ACC3-0BDA683EEF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C43DFAF7-A8C1-49AA-A137-1EDBB36F821B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6558A0F7-B9D4-49FA-AD84-1EC86D3D1307}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F995E0A-290D-480A-BCD1-0833035D9A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="140">
   <si>
     <t>Población que recibe medicación o terapia por cataratas en 2012 (Tasa respuesta: 2,23%)</t>
   </si>
@@ -153,55 +153,55 @@
     <t>33,71%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
   </si>
   <si>
     <t>67,2%</t>
   </si>
   <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
   </si>
   <si>
     <t>52,81%</t>
   </si>
   <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
   </si>
   <si>
     <t>66,29%</t>
   </si>
   <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
   </si>
   <si>
     <t>32,8%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
   </si>
   <si>
     <t>47,19%</t>
   </si>
   <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -210,103 +210,109 @@
     <t>28,79%</t>
   </si>
   <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
   </si>
   <si>
     <t>44,62%</t>
   </si>
   <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
   </si>
   <si>
     <t>38,12%</t>
   </si>
   <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
   </si>
   <si>
     <t>71,21%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
   </si>
   <si>
     <t>55,38%</t>
   </si>
   <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
   </si>
   <si>
     <t>61,88%</t>
   </si>
   <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>43,42%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
   </si>
   <si>
     <t>45,48%</t>
   </si>
   <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>56,58%</t>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
   </si>
   <si>
     <t>54,52%</t>
   </si>
   <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
   </si>
   <si>
     <t>60,79%</t>
   </si>
   <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -333,7 +339,7 @@
     <t>7,89%</t>
   </si>
   <si>
-    <t>39,3%</t>
+    <t>39,58%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -348,109 +354,109 @@
     <t>92,11%</t>
   </si>
   <si>
-    <t>60,7%</t>
+    <t>60,42%</t>
   </si>
   <si>
     <t>39,4%</t>
   </si>
   <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
   </si>
   <si>
     <t>47,16%</t>
   </si>
   <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
+    <t>60,51%</t>
   </si>
   <si>
     <t>44,53%</t>
   </si>
   <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
   </si>
   <si>
     <t>60,6%</t>
   </si>
   <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
+    <t>39,49%</t>
   </si>
   <si>
     <t>55,47%</t>
   </si>
   <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
   </si>
   <si>
     <t>35,92%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
   </si>
   <si>
     <t>43,01%</t>
   </si>
   <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
   </si>
   <si>
     <t>40,85%</t>
   </si>
   <si>
-    <t>50,22%</t>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
   </si>
   <si>
     <t>64,08%</t>
   </si>
   <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
   </si>
   <si>
     <t>56,99%</t>
   </si>
   <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
   </si>
   <si>
     <t>59,15%</t>
   </si>
   <si>
-    <t>49,78%</t>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
   </si>
 </sst>
 </file>
@@ -862,7 +868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0937F84D-1204-4F87-AF50-ECD7A2968D18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE31B8EF-B800-49B0-BA07-4FB869AE6DC5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1907,10 +1913,10 @@
         <v>74</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -1919,13 +1925,13 @@
         <v>42341</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -1934,13 +1940,13 @@
         <v>63164</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,13 +1961,13 @@
         <v>47159</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="H23" s="7">
         <v>46</v>
@@ -1970,13 +1976,13 @@
         <v>50755</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M23" s="7">
         <v>88</v>
@@ -1985,13 +1991,13 @@
         <v>97914</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,7 +2053,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2069,7 +2075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99130796-2891-4C12-B481-A8EA9F3FFFEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA32184-C5D3-462A-9715-4F80511EFD42}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2086,7 +2092,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2641,7 +2647,7 @@
         <v>1002</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>16</v>
@@ -2656,7 +2662,7 @@
         <v>1002</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>16</v>
@@ -2690,7 +2696,7 @@
         <v>2184</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
@@ -2705,7 +2711,7 @@
         <v>2184</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
@@ -2783,7 +2789,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2792,13 +2798,13 @@
         <v>1159</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2807,13 +2813,13 @@
         <v>1159</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,7 +2837,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>13</v>
@@ -2843,10 +2849,10 @@
         <v>10395</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>11</v>
@@ -2858,10 +2864,10 @@
         <v>13521</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>11</v>
@@ -2932,13 +2938,13 @@
         <v>12712</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -2947,13 +2953,13 @@
         <v>29698</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -2962,13 +2968,13 @@
         <v>42411</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +2989,13 @@
         <v>19549</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -2998,13 +3004,13 @@
         <v>33277</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -3120,10 +3126,10 @@
         <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3144,13 @@
         <v>22676</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -3153,13 +3159,13 @@
         <v>45855</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>64</v>
@@ -3168,13 +3174,13 @@
         <v>68530</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,7 +3236,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A27-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A27-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C43DFAF7-A8C1-49AA-A137-1EDBB36F821B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F657562B-33E2-4ACF-965C-AC8A34557483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F995E0A-290D-480A-BCD1-0833035D9A1F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3875869A-EB08-42BF-AB57-4BF27F41C8D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="142">
   <si>
     <t>Población que recibe medicación o terapia por cataratas en 2012 (Tasa respuesta: 2,23%)</t>
   </si>
@@ -111,7 +111,7 @@
     <t>28,28%</t>
   </si>
   <si>
-    <t>67,95%</t>
+    <t>73,72%</t>
   </si>
   <si>
     <t>51,37%</t>
@@ -123,7 +123,7 @@
     <t>71,72%</t>
   </si>
   <si>
-    <t>32,05%</t>
+    <t>26,28%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -153,55 +153,55 @@
     <t>33,71%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
   </si>
   <si>
     <t>67,2%</t>
   </si>
   <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
   </si>
   <si>
     <t>52,81%</t>
   </si>
   <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
   </si>
   <si>
     <t>66,29%</t>
   </si>
   <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
   </si>
   <si>
     <t>32,8%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
   </si>
   <si>
     <t>47,19%</t>
   </si>
   <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -210,115 +210,115 @@
     <t>28,79%</t>
   </si>
   <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
   </si>
   <si>
     <t>44,62%</t>
   </si>
   <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
   </si>
   <si>
     <t>38,12%</t>
   </si>
   <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
   </si>
   <si>
     <t>71,21%</t>
   </si>
   <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
   </si>
   <si>
     <t>55,38%</t>
   </si>
   <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
   </si>
   <si>
     <t>61,88%</t>
   </si>
   <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
   </si>
   <si>
     <t>45,48%</t>
   </si>
   <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
   </si>
   <si>
     <t>54,52%</t>
   </si>
   <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
   </si>
   <si>
     <t>60,79%</t>
   </si>
   <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por cataratas en 2015 (Tasa respuesta: 1,64%)</t>
+    <t>Población que recibe medicación o terapia por cataratas en 2016 (Tasa respuesta: 1,64%)</t>
   </si>
   <si>
     <t>31,46%</t>
@@ -333,13 +333,13 @@
     <t>10,03%</t>
   </si>
   <si>
-    <t>48,03%</t>
+    <t>42,06%</t>
   </si>
   <si>
     <t>7,89%</t>
   </si>
   <si>
-    <t>39,58%</t>
+    <t>40,34%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -348,115 +348,121 @@
     <t>89,97%</t>
   </si>
   <si>
-    <t>51,97%</t>
+    <t>57,94%</t>
   </si>
   <si>
     <t>92,11%</t>
   </si>
   <si>
-    <t>60,42%</t>
+    <t>59,66%</t>
   </si>
   <si>
     <t>39,4%</t>
   </si>
   <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
   </si>
   <si>
     <t>47,16%</t>
   </si>
   <si>
-    <t>60,51%</t>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
   </si>
   <si>
     <t>44,53%</t>
   </si>
   <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
   </si>
   <si>
     <t>60,6%</t>
   </si>
   <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>39,49%</t>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
   </si>
   <si>
     <t>55,47%</t>
   </si>
   <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
   </si>
   <si>
     <t>35,92%</t>
   </si>
   <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
   </si>
   <si>
     <t>43,01%</t>
   </si>
   <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
   </si>
   <si>
     <t>40,85%</t>
   </si>
   <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
   </si>
   <si>
     <t>64,08%</t>
   </si>
   <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
   </si>
   <si>
     <t>56,99%</t>
   </si>
   <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
   </si>
   <si>
     <t>59,15%</t>
   </si>
   <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
   </si>
 </sst>
 </file>
@@ -868,7 +874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE31B8EF-B800-49B0-BA07-4FB869AE6DC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE03ACC3-E32A-4B7F-A3E7-FB97395C8A6D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2075,7 +2081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA32184-C5D3-462A-9715-4F80511EFD42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703C05F4-1D8B-43C8-ACEA-F802F96F4039}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2956,10 +2962,10 @@
         <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -2968,13 +2974,13 @@
         <v>42411</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +2995,13 @@
         <v>19549</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -3004,13 +3010,13 @@
         <v>33277</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -3019,13 +3025,13 @@
         <v>52825</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3099,13 @@
         <v>12712</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -3108,13 +3114,13 @@
         <v>34610</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -3123,13 +3129,13 @@
         <v>47323</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,13 +3150,13 @@
         <v>22676</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -3159,13 +3165,13 @@
         <v>45855</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>64</v>
@@ -3174,13 +3180,13 @@
         <v>68530</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
